--- a/common/VipPrivilege.xlsx
+++ b/common/VipPrivilege.xlsx
@@ -26,6 +26,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">VIP_level
 </t>
     </r>
@@ -52,6 +59,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">dream_number
 </t>
     </r>
@@ -78,6 +92,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">seekdream_percent
 </t>
     </r>
@@ -114,7 +135,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,54 +152,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -190,6 +165,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -197,6 +217,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -205,16 +239,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,6 +255,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -237,38 +295,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,6 +336,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -321,13 +390,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,43 +480,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,109 +516,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,27 +546,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,8 +587,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,23 +626,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,10 +650,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -635,144 +662,150 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1100,10 +1133,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K13:K15"/>
+      <selection activeCell="B3" sqref="B3:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1114,134 +1147,145 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="32.25" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
+    <row r="3" s="1" customFormat="1" spans="1:3">
+      <c r="A3" s="4">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
         <v>3</v>
       </c>
       <c r="C3" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
         <v>4</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
         <v>5</v>
       </c>
-      <c r="C5" s="4">
-        <v>20</v>
+      <c r="C5" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
         <v>6</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
         <v>7</v>
       </c>
-      <c r="C7" s="4">
-        <v>30</v>
+      <c r="C7" s="6">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
         <v>8</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="6">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3">
+      <c r="A9" s="5">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4">
         <v>9</v>
       </c>
-      <c r="C9" s="4">
-        <v>40</v>
+      <c r="C9" s="6">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3">
+      <c r="A10" s="5">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4">
         <v>10</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="6">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3">
+      <c r="A11" s="5">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4">
         <v>11</v>
       </c>
-      <c r="C11" s="4">
-        <v>50</v>
+      <c r="C11" s="6">
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="3">
+      <c r="A12" s="5">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4">
+        <v>12</v>
+      </c>
+      <c r="C12" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="3">
-        <v>12</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="B13" s="4">
+        <v>13</v>
+      </c>
+      <c r="C13" s="6">
         <v>50</v>
       </c>
     </row>

--- a/common/VipPrivilege.xlsx
+++ b/common/VipPrivilege.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12465"/>
+    <workbookView windowWidth="27915" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
   <si>
     <t>VIP等级</t>
   </si>
@@ -26,24 +26,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">VIP_level
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">VIP_level </t>
     </r>
     <r>
       <rPr>
@@ -59,24 +42,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">dream_number
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">dream_number </t>
     </r>
     <r>
       <rPr>
@@ -92,24 +58,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">seekdream_percent
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">seekdream_percent </t>
     </r>
     <r>
       <rPr>
@@ -129,13 +78,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +106,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -165,38 +181,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,38 +219,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,65 +235,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
-    <font>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -336,13 +279,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,79 +429,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,85 +447,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,30 +489,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -580,30 +499,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,8 +521,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,6 +546,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -650,10 +593,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -662,16 +605,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -680,115 +623,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1131,12 +1074,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
